--- a/biology/Zoologie/Illeis_galbula/Illeis_galbula.xlsx
+++ b/biology/Zoologie/Illeis_galbula/Illeis_galbula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illeis galbula est une espèce de coléoptères de la famille des coccinellidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes font 4 à 5 mm de long tandis que les larves en font entre 8 et 10. Les adultes sont jaune clair avec des taches noires, les larves et les nymphes sont de couleur blanche avec des points noirs.
 </t>
@@ -542,7 +556,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la journée, les adultes se déplacent rapidement et s'envolent ou se laissent tomber facilement quand on les dérange. Ils se nourrissent sur les moisissures et autres champignons noirs. La nymphe est active et se tient souvent debout sur son arrière-train.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Australie et a été importée en Nouvelle-Zélande.
 </t>
